--- a/PostagensClassificadas/PostagensPolaridadeJsonTotal11-05-2019.xlsx
+++ b/PostagensClassificadas/PostagensPolaridadeJsonTotal11-05-2019.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C266"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -369,12 +369,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Postagem</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Polaridade</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Postagem</t>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Tipo</t>
         </is>
       </c>
     </row>
@@ -384,12 +389,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter novo é muito ruim 🙄</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Twitter novo é muito ruim 🙄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -399,12 +409,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter novo é uma merda 😡</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Uma merda fazer um twitter novo, começa do 0 dnv 👎</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -414,12 +429,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Não queria twitter novo 😑😢</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Twitter novo é uma merda 😡</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -429,12 +449,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Hora acho Twitter legal, hora acho tedioso 😴</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Não queria twitter novo 😑😢</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica']</t>
         </is>
       </c>
     </row>
@@ -444,12 +469,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter novo é horrível😑</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hora acho Twitter legal, hora acho tedioso 😴</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -459,12 +489,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Odeio quando faço um Twitter novo kkkkk🙄🙄</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Twitter novo é horrível😑</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -474,12 +509,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Tive que fazer um twitter novo, pq não consegui recuperar o outro 😩</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Odeio quando faço um Twitter novo kkkkk🙄🙄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -489,12 +529,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter novo é um saco 💔</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tive que fazer um twitter novo, pq não consegui recuperar o outro 😩</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -504,12 +549,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>RAPAZIADA TO COM TWITTER NOVO 🥺🥺🥺 QUERIA NÃO MASSS INFELIZMENTE NÃO CONSEGUI RECUPERAR O OUTRO 💔💔💔</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Twitter novo é um saco 💔</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -519,12 +569,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter lindo que não manda notificação depois que eu silencio a pessoa ❤️Minha mania de me auto stalkear e acabar… {URL}</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RAPAZIADA TO COM TWITTER NOVO 🥺🥺🥺 QUERIA NÃO MASSS INFELIZMENTE NÃO CONSEGUI RECUPERAR O OUTRO 💔💔💔</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -534,12 +589,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Criei um twitter novo porque o próprio Twitter excluiu o meu {User} aff 😭😭</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Twitter lindo que não manda notificação depois que eu silencio a pessoa ❤️Minha mania de me auto stalkear e acabar… {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -549,12 +609,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>- twitterlindo demais😔✊ {URL}</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Criei um twitter novo porque o próprio Twitter excluiu o meu {User} aff 😭😭</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica']</t>
         </is>
       </c>
     </row>
@@ -564,12 +629,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>#SabadoDetremuraSDV até  que eu aprendi a usar o Twitter rapido😂😂😂😂 #SDVcomTeamDetremura #Sdvtodos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>- twitterlindo demais😔✊ {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -579,12 +649,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Twitter novo é muito ruim 😭😭😭</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>#SabadoDetremuraSDV até  que eu aprendi a usar o Twitter rapido😂😂😂😂 #SDVcomTeamDetremura #Sdvtodos</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -594,12 +669,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter novo é tão chato 😬🤣</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Twitter novo é muito ruim 😭😭😭</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -609,12 +689,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Fim de uma era.... infelizmente, Twitter novo. 😓 {URL}</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Twitter novo é tão chato 😬🤣</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -624,12 +709,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Ranço de ter que criar um Twitter novo depois de 10 anos com a mesma conta 😒</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fim de uma era.... infelizmente, Twitter novo. 😓 {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -639,12 +729,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Tive que fazer um twitter novo, pq o meu velho estava tt sozinho pornografia 👀🤔</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ranço de ter que criar um Twitter novo depois de 10 anos com a mesma conta 😒</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -654,12 +749,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Antes eu achava o Twitter chato, mas é até legal, só que é muito difícil ganhar seguidores 😢 ai vc fica fazendo públicação pro nada kkk SAD😭</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tive que fazer um twitter novo, pq o meu velho estava tt sozinho pornografia 👀🤔</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -669,12 +769,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>por isso que eu amo Twitter, difícil cair 😒</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Antes eu achava o Twitter chato, mas é até legal, só que é muito difícil ganhar seguidores 😢 ai vc fica fazendo públicação pro nada kkk SAD😭</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -684,12 +789,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter novo muito chato🤨</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>por isso que eu amo Twitter, difícil cair 😒</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Comparação']</t>
         </is>
       </c>
     </row>
@@ -699,12 +809,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Twitter novo é um saco😑🙄</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Twitter novo muito chato🤨</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -714,12 +829,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter Novo e horrível  🙄</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Twitter novo é um saco😑🙄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -729,12 +849,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Odeio Twitter novo, não aparece nada de bom 😂</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Carinha no banco na minha frente no ônibus tá usando Twitter bom o tema branco. Quanto amadorismo 😈</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -744,12 +869,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>e horrível fazer twitter novo😏</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Twitter Novo e horrível  🙄</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica']</t>
         </is>
       </c>
     </row>
@@ -759,12 +889,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Que Twitter lindo.😉 {URL}</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Odeio Twitter novo, não aparece nada de bom 😂</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica', 'Dúvida', 'Sugestão']</t>
         </is>
       </c>
     </row>
@@ -774,12 +909,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>{User} Momento do twitter ter um emoji de reação diferente 😡</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>e horrível fazer twitter novo😏</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -789,12 +929,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Nossa , queria falar tanta coisa no Twitter mais nao posso 🤔</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Que Twitter lindo.😉 {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
@@ -804,12 +949,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Obrigado Twitter mais uma vez por me teres avisado que não tenho escola e assim não tenho de ir a escola ver 🙏</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{User} Momento do twitter ter um emoji de reação diferente 😡</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -819,12 +969,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>O bom de curtir o Twitter mais de madrugada é que 1 ninguém tá nem aí 2 ninguém te perturba e 3 repete 1 e 2 ✌🏻</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nossa , queria falar tanta coisa no Twitter mais nao posso 🤔</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -834,12 +989,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>#DireitaUnida #DireitaSegueDireita sacaneado pelo Twitter mais voltei.😂😂😂😂😂</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Obrigado Twitter mais uma vez por me teres avisado que não tenho escola e assim não tenho de ir a escola ver 🙏</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -849,12 +1009,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Vamos ajudar os amigos a chegaram a mil seguidores!! Twitter bom demais, recomendo! 👊👊⚫️⚪️ {URL}</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>O bom de curtir o Twitter mais de madrugada é que 1 ninguém tá nem aí 2 ninguém te perturba e 3 repete 1 e 2 ✌🏻</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -864,12 +1029,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>{User} que Twitter mais fofo!!!😔✊</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Neutra</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>#DireitaUnida #DireitaSegueDireita sacaneado pelo Twitter mais voltei.😂😂😂😂😂</t>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica']</t>
         </is>
       </c>
     </row>
@@ -879,12 +1049,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Aquela**** JÁ PASSOU DA HORA DO {User}  TER OPÇÃO DE EDITAR O TWEET VIU?! 🤦🏻‍♀️🤦🏻‍♀️🤦🏻‍♀️</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Geral pedindo namorada no twitter, gente vcs estão na rede social errada !A Jéssika tá no Tinder 😂😂😂</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -894,12 +1069,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Obrigada twitter mais uma vez 😊 {URL}</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Vamos ajudar os amigos a chegaram a mil seguidores!! Twitter bom demais, recomendo! 👊👊⚫️⚪️ {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -909,12 +1089,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Estranho o Twitter ter dado problema às vésperas de uma manifestação e basicamente com usuários de esquerda 🤔 {URL}</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{User} que Twitter mais fofo!!!😔✊</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
@@ -924,12 +1109,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>"Twitter mais morto que o meu, não Existe" 💔</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Aquela**** JÁ PASSOU DA HORA DO {User}  TER OPÇÃO DE EDITAR O TWEET VIU?! 🤦🏻‍♀️🤦🏻‍♀️🤦🏻‍♀️</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -939,12 +1129,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>A cada dia mais apaixonada pelo Twitter.... bem que a Rosely me falou que é viciante! ❤️</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Obrigada twitter mais uma vez 😊 {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -954,12 +1149,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Vou começar a usar o Twitter mais vezes.. 😴</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Estranho o Twitter ter dado problema às vésperas de uma manifestação e basicamente com usuários de esquerda 🤔 {URL}</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica']</t>
         </is>
       </c>
     </row>
@@ -969,12 +1169,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>eu ainda n superei o twitter ter bloqueado minha antiga conta, q eu usava ela há anos 🙄</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A cada dia mais apaixonada pelo Twitter.... bem que a Rosely me falou que é viciante! ❤️</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -984,12 +1189,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>{User} 😅 Atualizei o Twitter. Mais parece que fez foi aumentar os bug.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Vou começar a usar o Twitter mais vezes.. 😴</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['Sugestão']</t>
         </is>
       </c>
     </row>
@@ -999,12 +1209,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Para deixar o Twitter mais bonito...😅 {URL}</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>eu ainda n superei o twitter ter bloqueado minha antiga conta, q eu usava ela há anos 🙄</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['Sugestão']</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1229,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Eu quero apagar todas as fts do twitter, mais n sei como 🤦</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{User} 😅 Atualizei o Twitter. Mais parece que fez foi aumentar os bug.</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1029,12 +1249,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Que patifaria é essa do Twitter ter stories agora 🤦🏽‍♀️</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Um poema pra deixar o Twitter mais feliz! 😅 {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1044,12 +1269,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Tô amando o twitter! Mais uma rede social pra eu ser ignorada!❤</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Para deixar o Twitter mais bonito...😅 {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1289,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>To aqui enrolando pra estudar.. para que criei esse Twitter? Mais uma distração dos estudos 🤦🏻‍♀️🤷🏻‍♀️</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Eu quero apagar todas as fts do twitter, mais n sei como 🤦</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1074,12 +1309,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>A vontade é nem abrir o twitter mais... 😪</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Desativando twitter, Facebook, Instagram só WhatsApp 🙏</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1089,12 +1329,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Não dá para entrar no Twitter mais, é cada publicação de carro que eu vejo, damnn 😂😻🤤</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Que patifaria é essa do Twitter ter stories agora 🤦🏽‍♀️</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1349,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Essa merda de atualização fez meu twitter ficar bugando toda hora😤</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Tô amando o twitter! Mais uma rede social pra eu ser ignorada!❤</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1119,12 +1369,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Porra quero mandar áudio pelo twitter, mais nn estou conseguindo 😂😂😂😂😂😂😂</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>To aqui enrolando pra estudar.. para que criei esse Twitter? Mais uma distração dos estudos 🤦🏻‍♀️🤷🏻‍♀️</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1134,12 +1389,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Sem nexo nenhum o twitter ter bloqueado meu perfil 🤦🏻‍♂️</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Capa do twitter mais gostosa é a minha 😜</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1149,12 +1409,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Tô achando o #twitter mais legal que o #facebook ❤️😎 {URL}</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>A vontade é nem abrir o twitter mais... 😪</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1429,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Tava demorando o twitter ter story 🤦‍♀️</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Não dá para entrar no Twitter mais, é cada publicação de carro que eu vejo, damnn 😂😻🤤</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1179,12 +1449,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Nunca vi esse Twitter tão parado 💔 tô até assustada kkkkkkk</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>perdi pro twitter mais uma vez 🤠</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1469,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>aí o twitter tão fofo, qnd eu entro no meu perfil aparece vários balãozinhos 🤩</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Essa merda de atualização fez meu twitter ficar bugando toda hora😤</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1209,12 +1489,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>gnt fiz esse twitter porque denunciaram o outro!🤦🏽‍♀️</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Porra quero mandar áudio pelo twitter, mais nn estou conseguindo 😂😂😂😂😂😂😂</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1224,12 +1509,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>{User} O Twitter mais coerente 👏👏👏👏 {URL}</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sem nexo nenhum o twitter ter bloqueado meu perfil 🤦🏻‍♂️</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1529,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>{User} Obrigado a você linda 😍🥰😘Deixando o Twitter mais agradável 😘💕😍🥰</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Tô achando o #twitter mais legal que o #facebook ❤️😎 {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1254,12 +1549,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>{User} {User} Já conhece até meu Twitter tão bem 💕💞💗❣️💘</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Tava demorando o twitter ter story 🤦‍♀️</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1569,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Eu amo o Twitter, porque é onde encontro as melhores pessoas e ainda posso me expressar com gifs. 💜 {URL}</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Nunca vi esse Twitter tão parado 💔 tô até assustada kkkkkkk</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1284,12 +1589,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Pra que serve esse twitter aqui?? 🤔</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>aí o twitter tão fofo, qnd eu entro no meu perfil aparece vários balãozinhos 🤩</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
@@ -1299,12 +1609,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>eu gosto demais do twitter porque ele nos proporciona memes e ao mesmo tempo podemos falar de nossas vidas de bosta 🤩🤩🤩👍</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>gnt fiz esse twitter porque denunciaram o outro!🤦🏽‍♀️</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1314,12 +1629,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Ta, eu nunca tinha visto o twitter tao unido ❤️ {User} vc é um nenem</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{User} O Twitter mais coerente 👏👏👏👏 {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1329,12 +1649,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Eu já falei pra vcs que eu amo o Twitter porque não tem meus parente Bolsominion??Obg, tt. Sua existência muda minha vida 💕</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>{User} Obrigado a você linda 😍🥰😘Deixando o Twitter mais agradável 😘💕😍🥰</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1344,12 +1669,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Massa esse twitter.. Aqui se ver de tudo um pouco kk😂</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>{User} {User} Já conhece até meu Twitter tão bem 💕💞💗❣️💘</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1689,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Podia ter como reagir no twitter, porque o meu coração tá quebrado 💔 {URL}</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Eu amo o Twitter, porque é onde encontro as melhores pessoas e ainda posso me expressar com gifs. 💜 {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1374,12 +1709,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Vou apagar o Twitter , aqui vê se com cada merda , Kiss 🖕😘</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Pra que serve esse twitter aqui?? 🤔</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1389,12 +1729,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Ai Twitter tão pouco te conheço mas tanto te amo 😂 {URL}</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>eu gosto demais do twitter porque ele nos proporciona memes e ao mesmo tempo podemos falar de nossas vidas de bosta 🤩🤩🤩👍</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1404,12 +1749,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>tem a opção de deixar o Twitter mais escuro ainda tipo preto agora e eu já quero 🖤  pena que ainda só tem p iphone</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ta, eu nunca tinha visto o twitter tao unido ❤️ {User} vc é um nenem</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1419,12 +1769,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Eu nunca vi Twitter mais sem graça que nem o meu😒</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Vamos nos esforçar para tornar o Twitter mais honesto, seguro e um lugar melhor 😉 {User} {User}… {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1789,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Aaah que Twitter mais lindo esse totalmente escuro ❤️</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Eu já falei pra vcs que eu amo o Twitter porque não tem meus parente Bolsominion??Obg, tt. Sua existência muda minha vida 💕</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1449,12 +1809,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Oxe que coisa linda essa opção de deixar o twitter mais escuro do que já tá🤤</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Massa esse twitter.. Aqui se ver de tudo um pouco kk😂</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1464,12 +1829,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Agora vamos deixar o Twitter mais verde! 💚 {URL}</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Podia ter como reagir no twitter, porque o meu coração tá quebrado 💔 {URL}</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Sugestão']</t>
         </is>
       </c>
     </row>
@@ -1479,12 +1849,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>{User} {User} Mais já atualizou de novo? Tomará que demore horrores para chegar no meu perebinha aqui..😂😂😂</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Vou apagar o Twitter , aqui vê se com cada merda , Kiss 🖕😘</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1494,12 +1869,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Tem Muito Coisa Q Queria Posta No Twitter Mais Infelizmente Não Posso 🤦😌</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Ai Twitter tão pouco te conheço mas tanto te amo 😂 {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1509,12 +1889,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Bendito Twitter, como te amo 🤣🤣🤣🤣🤣 {URL}</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>tem a opção de deixar o Twitter mais escuro ainda tipo preto agora e eu já quero 🖤  pena que ainda só tem p iphone</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1524,12 +1909,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Eu acho quer vou perde esse Twitter aqui pq perdi o e-mail 😭😭</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Aaah que Twitter mais lindo esse totalmente escuro ❤️</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1929,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>{User} twitter mais didático q muitos livros por ai 🙏</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Oxe que coisa linda essa opção de deixar o twitter mais escuro do que já tá🤤</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1554,12 +1949,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Twitter mais bugado que tudo no mundo 🤩</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Agora vamos deixar o Twitter mais verde! 💚 {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1569,12 +1969,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>{User} sim !! ei twitter como ousas ocultar quem eu amo?? 😡😭</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>{User} {User} Mais já atualizou de novo? Tomará que demore horrores para chegar no meu perebinha aqui..😂😂😂</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1584,12 +1989,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Estava até pensando em excluir o twitter,mais mano kkk tem umas coisa q me animaaa demais 😁🤣😂</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>{User} Deborahh agora eu tenho twitter mais nao sei usar 😂</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica', 'Sugestão']</t>
         </is>
       </c>
     </row>
@@ -1599,12 +2009,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>10 anos de Twitter! Como não amar a melhor rede social deste 🌎, que me proporcionou amizades incríveis e boas discu… {URL}</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Tem Muito Coisa Q Queria Posta No Twitter Mais Infelizmente Não Posso 🤦😌</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1614,12 +2029,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>{User} bom dia!!! Podíamos ter atualização das linhas via twitter mais cedo ?🙃</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Bendito Twitter, como te amo 🤣🤣🤣🤣🤣 {URL}</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>['Sugestão']</t>
         </is>
       </c>
     </row>
@@ -1629,12 +2049,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>A professora de português aqui sofre principalmente no twitter. Aqui a gente nem tem a opção de editar. 😫😓 {URL}</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Eu acho quer vou perde esse Twitter aqui pq perdi o e-mail 😭😭</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1644,12 +2069,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>{User} {User} Esse é o melhor do Twitter, saber quem eh de verdade, basta ver o histórico de @ dos amiguinhos 😤</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>{User} twitter mais didático q muitos livros por ai 🙏</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1659,12 +2089,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Carai twitter, bem melhor assim!! 🖤 {URL}</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Twitter mais bugado que tudo no mundo 🤩</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1674,12 +2109,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Eu nem amando esse Twitter bem dark, todo preto! 🖤</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>{User} sim !! ei twitter como ousas ocultar quem eu amo?? 😡😭</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1689,12 +2129,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Palhaçada essa do twitter ter a opção de ficar preto só no app store 🙄💔</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Estava até pensando em excluir o twitter,mais mano kkk tem umas coisa q me animaaa demais 😁🤣😂</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1704,12 +2149,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Meu Twitter bem Dark 👌🏼 {URL}</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>{User} Tá complicado abrir Twitter aqui no trampo.😅</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1719,12 +2169,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>O twitter bem que poderia ter uma opção de salvar as tags... tipo, poderíamos fazer grupos de tags e deixar salvas. 😅🤘</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>10 anos de Twitter! Como não amar a melhor rede social deste 🌎, que me proporcionou amizades incríveis e boas discu… {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>['Sugestão']</t>
         </is>
       </c>
     </row>
@@ -1734,12 +2189,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>É eu entrar no twitter, ver certas coisas e ficar triste 🙄</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>{User} bom dia!!! Podíamos ter atualização das linhas via twitter mais cedo ?🙃</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1749,12 +2209,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter bem novinho 😍</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>A professora de português aqui sofre principalmente no twitter. Aqui a gente nem tem a opção de editar. 😫😓 {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1764,12 +2229,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>{User} o facto do Twitter ter gifs da Teresa Guilherme 😍😍😍</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Deixa eu dizer uma coisa pra vocês: o pior de ter o Twitter como aliado na tua profissão é não poder postar indireta.. 😔</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1779,12 +2249,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>{User} Já tá na hora do twitter ter editor rsrs😁</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>{User} {User} Esse é o melhor do Twitter, saber quem eh de verdade, basta ver o histórico de @ dos amiguinhos 😤</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>['Sugestão']</t>
         </is>
       </c>
     </row>
@@ -1794,12 +2269,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Queria personalizar meu twitter mais nao tem como 😢😭😭😭 Queroa deixar ele so branco e roxo</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Carai twitter, bem melhor assim!! 🖤 {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1809,12 +2289,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>O erro meu Twitter ter sido bloqueado 🙄😠</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Eu nem amando esse Twitter bem dark, todo preto! 🖤</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1824,12 +2309,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>{User} É por causa de gente como tu, tatu, que o {User} é contra o Twitter ter ferramenta de edição. 😂</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Palhaçada essa do twitter ter a opção de ficar preto só no app store 🙄💔</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1839,12 +2329,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>{User} Não controlo nem meu Twitter mais 🤦‍♂️</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Meu Twitter bem Dark 👌🏼 {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1854,12 +2349,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>{User} haaaaaaaa que twitter mais lindo!!! 😍 parabénnnnnnns</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>N aguento mais ver status do wpp , Instagram , twitter , Facebook preciso dormir 😴</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1869,12 +2369,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>dia do twitter ficar insurportável 😄</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>O twitter bem que poderia ter uma opção de salvar as tags... tipo, poderíamos fazer grupos de tags e deixar salvas. 😅🤘</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica', 'Comparação']</t>
         </is>
       </c>
     </row>
@@ -1884,12 +2389,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter ficar chato qnd tem jogo 🙄</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>É eu entrar no twitter, ver certas coisas e ficar triste 🙄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1899,12 +2409,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Não tem twitter mais bugado que o meu 🙄</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Twitter bem novinho 😍</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1914,12 +2429,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Cada dia mais difícil usar o app do Twitter. Mais bugado que eu tentando dividir conta de barzinho 😐 {URL}</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>{User} o facto do Twitter ter gifs da Teresa Guilherme 😍😍😍</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>['Comparação']</t>
         </is>
       </c>
     </row>
@@ -1929,12 +2449,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>ok, o twitter mais uma vez comeu minhas mentions. 👍🏻</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>{User} Já tá na hora do twitter ter editor rsrs😁</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica', 'Sugestão']</t>
         </is>
       </c>
     </row>
@@ -1944,12 +2469,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>{User} Aike Twitter mais lindo💕✨</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Queria personalizar meu twitter mais nao tem como 😢😭😭😭 Queroa deixar ele so branco e roxo</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1959,12 +2489,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Caramba perdi meu Twitter porque eu botei minha data de nascimento verdadeira foi lá minha  conta foi bloqueada e tive que fazer outro 😠</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>O erro meu Twitter ter sido bloqueado 🙄😠</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -1974,12 +2509,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>{User} {User} {User} {User} nós brasileiros queremos o tema Black no twitter porquê somos privilegiados sim 😎👍</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>{User} É por causa de gente como tu, tatu, que o {User} é contra o Twitter ter ferramenta de edição. 😂</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -1989,12 +2529,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Amo o Twitter porque posso sofrer em paz ✌️</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>{User} Não controlo nem meu Twitter mais 🤦‍♂️</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2004,12 +2549,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Tenho Twitter,  Mais não sei Twittar 😂😂😉</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>{User} haaaaaaaa que twitter mais lindo!!! 😍 parabénnnnnnns</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2019,12 +2569,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Às vezes meu Twitter seguir umas pessoas sem eu tender 🤦🏽‍♂️</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>dia do twitter ficar insurportável 😄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2034,12 +2589,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>gente como que faz pro twitter ficar azul em vez de preto de novo 😰</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Twitter ficar chato qnd tem jogo 🙄</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>['Dúvida']</t>
         </is>
       </c>
     </row>
@@ -2049,12 +2609,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Consegui fazer meu Twitter ficar pretoo 😍😍</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Não tem twitter mais bugado que o meu 🙄</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2064,12 +2629,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>num gosto dessas atualizações do twitter, porque às vezes posto coisa aqui que devia ser no ttdinda 🙄</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Cada dia mais difícil usar o app do Twitter. Mais bugado que eu tentando dividir conta de barzinho 😐 {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2649,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>{User} {User} {User} {User} Pode ter sido um bug do Twitter porque eu não me lembro de ter dado block nela 😕{User}</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ok, o twitter mais uma vez comeu minhas mentions. 👍🏻</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2094,12 +2669,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Eu amo o twitter porque ele serve pra ser seu melhor amigo ❤️</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>{User} Aike Twitter mais lindo💕✨</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2689,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Não tô conseguindo usar o Twitter porque só tem política Que raiva 🙄🙄</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Caramba perdi meu Twitter porque eu botei minha data de nascimento verdadeira foi lá minha  conta foi bloqueada e tive que fazer outro 😠</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2709,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>vou ignorar redes sociais até o fim do dia pra parar de passar raiva, só entrarei no twitter porque aqui me sinto bem 💕</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>{User} {User} {User} {User} nós brasileiros queremos o tema Black no twitter porquê somos privilegiados sim 😎👍</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2139,12 +2729,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>rede social fav e pq? — Twitter porque é a melhor de todas irra 🤠 {URL}</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Amo o Twitter porque posso sofrer em paz ✌️</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2154,12 +2749,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Eu to cansada desse twitter ficar bugando toda hr aaaaaaaa 👺 {URL}</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Tenho Twitter,  Mais não sei Twittar 😂😂😉</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2169,12 +2769,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Essa corrente de unpopular opinion é a coisa mais chata do twitter, porque ninguém fala nada realmente impopular 🙄… {URL}</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Às vezes meu Twitter seguir umas pessoas sem eu tender 🤦🏽‍♂️</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2184,12 +2789,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Gosto do twitter porque posso escrever o que eu quiser que meus parentes não vão ver/reagir a minha publicação 😍😂</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>gente como que faz pro twitter ficar azul em vez de preto de novo 😰</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2199,12 +2809,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Passou da hora do Twitter colocar a opção editar 🤦‍♀️</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Consegui fazer meu Twitter ficar pretoo 😍😍</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2214,12 +2829,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Perdi a porra da senha do outro twitter, fazer outro para começar tudo de novo é sem graça pra caralho. 😒🤦</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>num gosto dessas atualizações do twitter, porque às vezes posto coisa aqui que devia ser no ttdinda 🙄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2229,12 +2849,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>📌 Meu Twitter inexplicavelmente caiu no dia do jogo, só ontem que voltou ao normal.Além do meu Twitter ter caído… {URL}</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>{User} {User} {User} {User} Pode ter sido um bug do Twitter porque eu não me lembro de ter dado block nela 😕{User}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2244,12 +2869,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>{User} {User} 🤦‍♀️🤦‍♀️🤦‍♀️ Vou te contar, esse twitter... Ver aqui se dá pra recuperar.</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Eu amo o twitter porque ele serve pra ser seu melhor amigo ❤️</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2259,12 +2889,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Eu só acho que passou da hora do {User} fazer um "Não gostei" (👎) igual o {User} ...</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Não tô conseguindo usar o Twitter porque só tem política Que raiva 🙄🙄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>['Comparação']</t>
         </is>
       </c>
     </row>
@@ -2274,12 +2909,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Ow palhaçada do twitter colocar o preto so pra iphone. 👺</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>vou ignorar redes sociais até o fim do dia pra parar de passar raiva, só entrarei no twitter porque aqui me sinto bem 💕</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2929,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>{User} acho lindo isso de gente no twitter fazer consultas de graça 😍😍😍😍 brasil tá crescendo 🙏</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>rede social fav e pq? — Twitter porque é a melhor de todas irra 🤠 {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2304,12 +2949,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Queria dizer que esse negócio do Twitter ficar branco de manhã ta me irritando 🤦🏻‍♀️</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Eu to cansada desse twitter ficar bugando toda hr aaaaaaaa 👺 {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2319,12 +2969,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>mais uma atualização e nada do twitter ficar preto 🙏🏻</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Essa corrente de unpopular opinion é a coisa mais chata do twitter, porque ninguém fala nada realmente impopular 🙄… {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2334,12 +2989,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>se tem uma coisa que me irrita, é o twitter ficar tirando os meus rts dos posts 🙄</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Gosto do twitter porque posso escrever o que eu quiser que meus parentes não vão ver/reagir a minha publicação 😍😂</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2349,12 +3009,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>indo de twitter em twitter ver quem as pessoas seguem pra lembrar de todo mundo que eu seguia 😭😭</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Passou da hora do Twitter colocar a opção editar 🤦‍♀️</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2364,12 +3029,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>MEU TWITTER MAIS DOIDÃO QUE O PADRE DO BALÃO 🎈🎈🎈🎈 {URL}</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Pro meu twitter ficar melhor e sem lacre. 😂 {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2379,12 +3049,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Baixei o twitter mais até eu me acostumar vai demora mds 🤔</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Perdi a porra da senha do outro twitter, fazer outro para começar tudo de novo é sem graça pra caralho. 😒🤦</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
@@ -2394,12 +3069,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Meu Twitter Facebook e Instagram estão ruim travando horrores o de vcs tb? Ou será que o problema é o meu celular? 🤔</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>📌 Meu Twitter inexplicavelmente caiu no dia do jogo, só ontem que voltou ao normal.Além do meu Twitter ter caído… {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
@@ -2409,12 +3089,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>#whatsappdown poxa twitter bem que vc poderia disponibilizar o dark mode pra android 😕</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>{User} {User} 🤦‍♀️🤦‍♀️🤦‍♀️ Vou te contar, esse twitter... Ver aqui se dá pra recuperar.</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2424,12 +3109,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Por isso q amo o twitter... #Facebook #zap #istagram Parou de novo...🤦🏻‍♀️ {URL}</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Eu só acho que passou da hora do {User} fazer um "Não gostei" (👎) igual o {User} ...</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2439,12 +3129,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Coloquei meu Twitter mais escuro que o normal e estou amando 😍</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Ow palhaçada do twitter colocar o preto so pra iphone. 👺</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2454,12 +3149,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Depois que eu conheci o Twitter, Facebook nunca Mas foi bom . 🤦🏾‍♂️😐🤣</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>{User} acho lindo isso de gente no twitter fazer consultas de graça 😍😍😍😍 brasil tá crescendo 🙏</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2469,12 +3169,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Fiz o Twitter mais nao sei mecher 😂😂</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Queria dizer que esse negócio do Twitter ficar branco de manhã ta me irritando 🤦🏻‍♀️</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2484,12 +3189,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>KKK já tô enjoando do twitter mais é a única coisa que tem pra fazer 😅</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>mais uma atualização e nada do twitter ficar preto 🙏🏻</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>['Sugestão']</t>
         </is>
       </c>
     </row>
@@ -2499,12 +3209,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>{User} Kkkkk mais gente , pode nem mudar a bio do twitter mais 😂</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>se tem uma coisa que me irrita, é o twitter ficar tirando os meus rts dos posts 🙄</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2514,12 +3229,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Sério não tenho ânimo p ficar no Instagram... twitter bem melhor 🤗🤗😅🙈</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>indo de twitter em twitter ver quem as pessoas seguem pra lembrar de todo mundo que eu seguia 😭😭</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>['Comparação', 'Sugestão']</t>
         </is>
       </c>
     </row>
@@ -2529,12 +3249,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter bom é assim 🤤 {URL}</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MEU TWITTER MAIS DOIDÃO QUE O PADRE DO BALÃO 🎈🎈🎈🎈 {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2544,12 +3269,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Caralho eu tento movimentar essa porra dê Twitter mais esqueço, me ajuda aí povo 😥🙏🏻</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Baixei o twitter mais até eu me acostumar vai demora mds 🤔</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
@@ -2559,12 +3289,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>O Twitter bem que poderia atualizar 😉🤔😉 mandar áudio pq a gente quer digitar e as vezes bate uma preguiça 😅 depois ñ lembramos o que era 😑</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Meu Twitter Facebook e Instagram estão ruim travando horrores o de vcs tb? Ou será que o problema é o meu celular? 🤔</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2574,12 +3309,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>{User} Não basta o Twitter ficar colocando gente na minha timeline que nem sigo? 😩😩😩</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>#whatsappdown poxa twitter bem que vc poderia disponibilizar o dark mode pra android 😕</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2589,12 +3329,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Eu faço muitas amizades pelo Twitter gente, amo essa rede social ❤️</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Por isso q amo o twitter... #Facebook #zap #istagram Parou de novo...🤦🏻‍♀️ {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2604,12 +3349,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>{User} {User} A mídia twitter Facebook YouTube está muito com frescura igual a ESQUERDA 👈🤣</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Coloquei meu Twitter mais escuro que o normal e estou amando 😍</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2619,12 +3369,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Depois que eu conheci o Twitter, Facebook nunca Mas foi bom . 🤦🏻‍♀️😐</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Depois que eu conheci o Twitter, Facebook nunca Mas foi bom . 🤦🏾‍♂️😐🤣</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2634,12 +3389,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Eu tenho muita preguiça de mexer no twitter , mais eu amo ❤️</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Fiz o Twitter mais nao sei mecher 😂😂</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2649,12 +3409,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Tô adorando o Twitter bem dark 🖤</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>KKK já tô enjoando do twitter mais é a única coisa que tem pra fazer 😅</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2664,12 +3429,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>O Twitter bem que podia ter a opção de publicar áudios 😁</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>{User} Kkkkk mais gente , pode nem mudar a bio do twitter mais 😂</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>['Sugestão']</t>
         </is>
       </c>
     </row>
@@ -2679,12 +3449,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>{User} Esperando o botão "haha"no twitter, porque tem algumas coisas que o "❤" não expressa nosso real se… {URL}</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Sério não tenho ânimo p ficar no Instagram... twitter bem melhor 🤗🤗😅🙈</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2694,12 +3469,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Oi amigos, fiz outro Twitter porque o anterior foi bloqueado 😑</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Twitter bom é assim 🤤 {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2709,12 +3489,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>E cá estamos nós no Twitter porque os insta tá down😂😂</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Caralho eu tento movimentar essa porra dê Twitter mais esqueço, me ajuda aí povo 😥🙏🏻</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2724,12 +3509,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Bom-dia só para os utilizadores do Twitter porque o instagram está em baixo! 💜 Que elenco senhores!!! {URL}</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>O Twitter bem que poderia atualizar 😉🤔😉 mandar áudio pq a gente quer digitar e as vezes bate uma preguiça 😅 depois ñ lembramos o que era 😑</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2739,12 +3529,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Gente me ajuda mexer no Twitter porque eu não faço a mínima ideia como usar... nem seguidor eu tenho 😂</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>{User} Não basta o Twitter ficar colocando gente na minha timeline que nem sigo? 😩😩😩</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2754,12 +3549,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>{User} {User} Ué! {User}  Porque um perfil pode e o outro perfil não pode? as regras não são iguais para todos os usuários?🤔</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Eu faço muitas amizades pelo Twitter gente, amo essa rede social ❤️</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
@@ -2769,12 +3569,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
+          <t>Gente fiz outro Twitter porque bloquearam meu 😥</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
           <t>Neutra</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>{User} {User} A mídia twitter Facebook YouTube está muito com frescura igual a ESQUERDA 👈🤣</t>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
@@ -2784,12 +3589,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>adoro o twitter porque a gente fala sozinho, porém, todo mundo junto 🙌🏻</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Depois que eu conheci o Twitter, Facebook nunca Mas foi bom . 🤦🏻‍♀️😐</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2799,12 +3609,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Ainda bem que não tem stories no Twitter, porque estou revendo meus stories no Instagram do Mineirão hoje, talvez tenha exagerado um pouco 🙊</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Eu tenho muita preguiça de mexer no twitter , mais eu amo ❤️</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>['Comparação']</t>
         </is>
       </c>
     </row>
@@ -2814,12 +3629,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>{User} Não estou podendo curtir este twitter, porque diz que foi excluído. Como assim? 🤔</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Tô adorando o Twitter bem dark 🖤</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
@@ -2829,12 +3649,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>{User} Eu só não sou completamente apaixonada pelo Twitter porque não tem a opção EDITAR. Imperdoável, ainda mais pra mim. 🙈</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>O Twitter bem que podia ter a opção de publicar áudios 😁</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Comparação']</t>
         </is>
       </c>
     </row>
@@ -2844,12 +3669,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Sinceramente amo o twitter,aqui é um local completamente diferente de tudo😂😂,podemos reclamar sem ser censuradas</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>{User} Esperando o botão "haha"no twitter, porque tem algumas coisas que o "❤" não expressa nosso real se… {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2859,12 +3689,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Eu gosto do Twitter porque aqui fico igual uma louca falando sozinha tudo que penso!Me sinto bem!😄</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Oi amigos, fiz outro Twitter porque o anterior foi bloqueado 😑</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica', 'Comparação']</t>
         </is>
       </c>
     </row>
@@ -2874,12 +3709,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Meu descobrinque da pra deixar o Twitter mais escuro que o modo escuro 😍😍😍 {URL}</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>E cá estamos nós no Twitter porque os insta tá down😂😂</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2889,12 +3729,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>sem necessidades twitter ficar mostrando as coisas que os outros curtem 🙄</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Bom-dia só para os utilizadores do Twitter porque o instagram está em baixo! 💜 Que elenco senhores!!! {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2904,12 +3749,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Tanto no Twitter como no insta apanhei agora a mania de silenciar as pessoas que metem a minha autoestima para baixo por serem bonitas 😂</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Gente me ajuda mexer no Twitter porque eu não faço a mínima ideia como usar... nem seguidor eu tenho 😂</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2919,12 +3769,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Eu amo o Twitter, aqui é o lugar aonde a gente sb de tudo sem querer 🤔🤦‍♀️😂</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>{User} {User} Ué! {User}  Porque um perfil pode e o outro perfil não pode? as regras não são iguais para todos os usuários?🤔</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2934,12 +3789,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>{User} Você assistiu pelo Twitter? Como? 🤔</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Gente fiz outro Twitter porque bloquearam meu 😥</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
@@ -2949,12 +3809,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Facebook, Instagram e WhatsApp instáveis, e o Twitter como sempre continua pleno 😎</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>adoro o twitter porque a gente fala sozinho, porém, todo mundo junto 🙌🏻</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2964,12 +3829,17 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>5 anos depois de volta ao Twitter , como se usa essa bagaça mesmo ???🤦🏻‍♂️🤦🏻‍♂️🤦🏻‍♂️</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Ainda bem que não tem stories no Twitter, porque estou revendo meus stories no Instagram do Mineirão hoje, talvez tenha exagerado um pouco 🙊</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -2979,12 +3849,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>A capa do twitter mais linda é a minha 💙🇧🇼😍</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>{User} Não estou podendo curtir este twitter, porque diz que foi excluído. Como assim? 🤔</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -2994,12 +3869,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
+          <t>Boa Noite galera,sou novo aqui no Twitter. Mais informações chama na DM🔥 {URL}</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
           <t>Neutra</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>{User} Eu só não sou completamente apaixonada pelo Twitter porque não tem a opção EDITAR. Imperdoável, ainda mais pra mim. 🙈</t>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>['Dúvida']</t>
         </is>
       </c>
     </row>
@@ -3009,12 +3889,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
+          <t>{User} Tsc Tsc será mesmo? 👎já foi bem melhor o face.. Twitter bem melhor  💕💕💕</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
           <t>Neutra</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Sinceramente amo o twitter,aqui é um local completamente diferente de tudo😂😂,podemos reclamar sem ser censuradas</t>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Comparação']</t>
         </is>
       </c>
     </row>
@@ -3024,12 +3909,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>twitter bem que podia deixar editar os tweets 🤦🏻‍♀️</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Eu gosto do Twitter porque aqui fico igual uma louca falando sozinha tudo que penso!Me sinto bem!😄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3039,12 +3929,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Nice ban que levei do twitter bem atoa 🤟🏼</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Meu descobrinque da pra deixar o Twitter mais escuro que o modo escuro 😍😍😍 {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3949,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Estavo Querendo Entrar No Meu Twitter Ir Não Estavo Conseguindo 🤔</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>sem necessidades twitter ficar mostrando as coisas que os outros curtem 🙄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
@@ -3069,12 +3969,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Twitter mais escuro 😍</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Tanto no Twitter como no insta apanhei agora a mania de silenciar as pessoas que metem a minha autoestima para baixo por serem bonitas 😂</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -3084,12 +3989,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Eu não sabia dessa função no twitter gente kkkkkkPARABÉNS {User} FELICIDADES ❤️🎉💥 {URL}</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Eu amo o Twitter, aqui é o lugar aonde a gente sb de tudo sem querer 🤔🤦‍♀️😂</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>['Dúvida']</t>
         </is>
       </c>
     </row>
@@ -3099,12 +4009,17 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Legal mesmo foi a minha outra conta do twitter ter sido bloqueada, vlw Twitter! 🙄</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>{User} Você assistiu pelo Twitter? Como? 🤔</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3114,12 +4029,17 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>UMA BOA HORA PARA MEU TWITTER FICAR TRAVANDO 🤦‍♀️</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Facebook, Instagram e WhatsApp instáveis, e o Twitter como sempre continua pleno 😎</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3129,12 +4049,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter mais uma vez não me mandou a porra da notificação do tweet do BTS pqp eu te odeio demais twitter seu fdp 😤😤😤😤</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>5 anos depois de volta ao Twitter , como se usa essa bagaça mesmo ???🤦🏻‍♂️🤦🏻‍♂️🤦🏻‍♂️</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3144,12 +4069,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>fui tombada pelo twitter porque não tinha idade pra ter tt na epoca que criei 😔✊</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>A capa do twitter mais linda é a minha 💙🇧🇼😍</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica']</t>
         </is>
       </c>
     </row>
@@ -3159,12 +4089,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
+          <t>Parei com Facebook e vim pro twitter porque twitter não tenho muitos conhecidos ou seja fora do radar🛰️</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
           <t>Neutra</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Boa Noite galera,sou novo aqui no Twitter. Mais informações chama na DM🔥 {URL}</t>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>['Comparação']</t>
         </is>
       </c>
     </row>
@@ -3174,12 +4109,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Twitter porque tengo facebook bloqueao’🤦🏻‍♀️</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>{User} Tsc Tsc será mesmo? 👎já foi bem melhor o face.. Twitter bem melhor  💕💕💕</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3189,12 +4129,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Gosto do Twitter porque posso falar sozinha a vontade 😂</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>twitter bem que podia deixar editar os tweets 🤦🏻‍♀️</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -3204,12 +4149,17 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Tive que criar este novo Twitter porque a minha outra conta foi suspensa for no reason 🤦‍♂️🤦‍♂️</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Nice ban que levei do twitter bem atoa 🤟🏼</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3219,12 +4169,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Tem vezes que eu só queria usar aquela figurinha "OK OBRIGADA PELA INFO" aqui no twitter, porque olha 💆</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Estavo Querendo Entrar No Meu Twitter Ir Não Estavo Conseguindo 🤔</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>['Sugestão']</t>
         </is>
       </c>
     </row>
@@ -3234,12 +4189,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>{User} Oxe, véia. No Twitter, seguir é tipo o adicionar do facebook 😄</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Twitter mais escuro 😍</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica', 'Comparação']</t>
         </is>
       </c>
     </row>
@@ -3249,12 +4209,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>caralho twitter porque não tá mandando as notificação do nono 😡😡😡</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Eu não sabia dessa função no twitter gente kkkkkkPARABÉNS {User} FELICIDADES ❤️🎉💥 {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3264,12 +4229,17 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Só queria te o privilégio de ver meu perfil no tema preto 😫✊ twitter porque odiasse tanto os Android? {URL}</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Legal mesmo foi a minha outra conta do twitter ter sido bloqueada, vlw Twitter! 🙄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3279,12 +4249,17 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Fiz um twitter porque me falaram que eu poderia falar qualquer merda 😀</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>UMA BOA HORA PARA MEU TWITTER FICAR TRAVANDO 🤦‍♀️</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -3294,12 +4269,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Pala do dia: a pessoa foi bloqueada do twitter porque foi colocar a data de nascimento certa e não tem idade suficiente pra estar no app 🤣</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Twitter mais uma vez não me mandou a porra da notificação do tweet do BTS pqp eu te odeio demais twitter seu fdp 😤😤😤😤</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3309,12 +4289,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Tive que fazer outro twitter , porque o outro bloquearam 😑</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>fui tombada pelo twitter porque não tinha idade pra ter tt na epoca que criei 😔✊</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3324,12 +4309,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>{User} Esperando o twitter colocar 😡 como reação</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Parei com Facebook e vim pro twitter porque twitter não tenho muitos conhecidos ou seja fora do radar🛰️</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3339,12 +4329,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Não vejo a hora do Twitter colocar modo preto no Android 🤔</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Twitter porque tengo facebook bloqueao’🤦🏻‍♀️</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
@@ -3354,12 +4349,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>{User} normal do twitter ter sempre um problema 🙄</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Tive que criar este novo Twitter porque a minha outra conta foi suspensa for no reason 🤦‍♂️🤦‍♂️</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3369,12 +4369,17 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>{User} Já tá mim dando raiva 😡😡 tá bom do twitter fazer uma atualização pra melhorar isso</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Tem vezes que eu só queria usar aquela figurinha "OK OBRIGADA PELA INFO" aqui no twitter, porque olha 💆</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3384,12 +4389,17 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Decepcionado com o novo visual do #Twitter! 😕 O header do perfil ocupando toda a tela do computador era bem melhor!… {URL}</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>{User} Oxe, véia. No Twitter, seguir é tipo o adicionar do facebook 😄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3399,12 +4409,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>{User} Eu sigo e não dou unfollow; somente se a pessoa for terrível ou o Twitter fazer besteira (e ele faz, viu?)... 😉</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>caralho twitter porque não tá mandando as notificação do nono 😡😡😡</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica', 'Dúvida', 'Sugestão']</t>
         </is>
       </c>
     </row>
@@ -3414,12 +4429,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>esperando o twitter colocar a opção de “editar tweet“ 😒</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Só queria te o privilégio de ver meu perfil no tema preto 😫✊ twitter porque odiasse tanto os Android? {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3429,12 +4449,17 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Que merda é essa do Twitter querer bloquear as pessoas? 😑 Eu não fiz nada mal mal tenho entrado aqui...</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Fiz um twitter porque me falaram que eu poderia falar qualquer merda 😀</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3444,12 +4469,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Era pro Twitter ter as reações de amei, uau, haha, eu ia bater o Record de haha !🤣🤣🤣🤣🤣</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Pala do dia: a pessoa foi bloqueada do twitter porque foi colocar a data de nascimento certa e não tem idade suficiente pra estar no app 🤣</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3459,12 +4489,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Meu sonho o Twitter colocar a função de EDITAR 😋</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Tive que fazer outro twitter , porque o outro bloquearam 😑</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>['Sugestão']</t>
         </is>
       </c>
     </row>
@@ -3474,12 +4509,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>se matar pra fazer stuff e o twitter tirar a qualidade, obrigada meu deus 😔🙏</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>{User} Esperando o twitter colocar 😡 como reação</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -3489,12 +4529,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>⚠️⚠️ fiz uma conta reserva com medo do twitter excluir essa daqui nessa limpeza que ele ta fazendo então ⚠️⚠️&amp;gt;&amp;gt;MU… {URL}</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Não vejo a hora do Twitter colocar modo preto no Android 🤔</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3504,12 +4549,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Muito ruim ter que criar Twitter novo cr 😩😡</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>{User} normal do twitter ter sempre um problema 🙄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3519,12 +4569,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter novo porque o Twitter bloqueou o meu antigo🖕</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>{User} Já tá mim dando raiva 😡😡 tá bom do twitter fazer uma atualização pra melhorar isso</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3534,12 +4589,17 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>É horrível fazer twitter novo cara 🙄</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Decepcionado com o novo visual do #Twitter! 😕 O header do perfil ocupando toda a tela do computador era bem melhor!… {URL}</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3549,12 +4609,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>É tão ruim Twitter novo 👎</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>{User} Eu sigo e não dou unfollow; somente se a pessoa for terrível ou o Twitter fazer besteira (e ele faz, viu?)... 😉</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>['Comparação']</t>
         </is>
       </c>
     </row>
@@ -3564,12 +4629,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter novo e ruizao🙄</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>esperando o twitter colocar a opção de “editar tweet“ 😒</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3579,12 +4649,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter novo, o antigo o Twitter bloqueou pq quando eu criei não tinha 13 anos 🙄🙄🙄</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Que merda é essa do Twitter querer bloquear as pessoas? 😑 Eu não fiz nada mal mal tenho entrado aqui...</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3594,12 +4669,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Gente só pra lembrar que quando curtimos coisas aqui no Twitter, aparecer para os seguidores 🤭</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Era pro Twitter ter as reações de amei, uau, haha, eu ia bater o Record de haha !🤣🤣🤣🤣🤣</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>['Ajuda']</t>
         </is>
       </c>
     </row>
@@ -3609,12 +4689,17 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Sobre o Twitter ter modo super escuro 🙌🏼🖤</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Meu sonho o Twitter colocar a função de EDITAR 😋</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -3624,12 +4709,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>a parte ruim de fazer Twitter novo é ter que seguir todo mundo novamente 🤦🏻‍♂️ pqp</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>se matar pra fazer stuff e o twitter tirar a qualidade, obrigada meu deus 😔🙏</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3639,12 +4729,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>perdidinha com neste twitter novo rs 😂</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>⚠️⚠️ fiz uma conta reserva com medo do twitter excluir essa daqui nessa limpeza que ele ta fazendo então ⚠️⚠️&amp;gt;&amp;gt;MU… {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -3654,12 +4749,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter novo ☑️ vamos ver se eu me adapto a essa merda de novo 🙄</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Muito ruim ter que criar Twitter novo cr 😩😡</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3669,12 +4769,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Qq é esse twitter novo, não curti 🙅🏾‍♀️</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Twitter novo porque o Twitter bloqueou o meu antigo🖕</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3684,12 +4789,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>{User} {User} {User} ESSE TWITTER NOVO EH HORRÍVEL 😭 parece que eles pensaram “hm como podemos fazer par… {URL}</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>É horrível fazer twitter novo cara 🙄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3699,12 +4809,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>não dá pra abrir links do youtube no twitter novo 😹😹😹😹😹😹😹😹😹😹😹</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>É tão ruim Twitter novo 👎</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3714,12 +4829,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>não curtir esse twitter novo, sou mt mais o antigo, modo noturno  🌚</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Twitter novo e ruizao🙄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3729,12 +4849,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Twitter novo é podre 🤢</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Twitter novo, o antigo o Twitter bloqueou pq quando eu criei não tinha 13 anos 🙄🙄🙄</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3744,12 +4869,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>twitter novo ficou ó👌u m a b o s t a</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Sobre o Twitter ter modo super escuro 🙌🏼🖤</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3759,12 +4889,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>e esse twitter novo 🤔</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>a parte ruim de fazer Twitter novo é ter que seguir todo mundo novamente 🤦🏻‍♂️ pqp</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
@@ -3774,12 +4909,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>{User} Só quero saber como q faz pro Twitter ficar preto 🤔</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>perdidinha com neste twitter novo rs 😂</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
@@ -3789,12 +4929,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>negxskkkkkkk fui tentar fazer o twitter ficar pretoficou lindo viu 😍😍😍😍 {URL}</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Twitter novo ☑️ vamos ver se eu me adapto a essa merda de novo 🙄</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -3804,12 +4949,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Aprendir mecher no twitter  , Facebook nn tem mas graça direito , so os memes 😅</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Qq é esse twitter novo, não curti 🙅🏾‍♀️</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>['Sugestão']</t>
         </is>
       </c>
     </row>
@@ -3819,12 +4969,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>sinceramente eu não poderia estar mais feliz no instagram tirando os like das fotosagora tira do twitter, facebook tbm 🙏🏻</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>{User} {User} {User} ESSE TWITTER NOVO EH HORRÍVEL 😭 parece que eles pensaram “hm como podemos fazer par… {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -3834,12 +4989,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>gratidão pelo twitter ter essa ferramenta 🙏</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>não dá pra abrir links do youtube no twitter novo 😹😹😹😹😹😹😹😹😹😹😹</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -3849,12 +5009,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Meu sonho é um dia acordar e o twitter ter inventado um botão 🔘 Editar 😊#TercaLigaDaJustiçaSDV #TercaDetremuraSDV</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>não curtir esse twitter novo, sou mt mais o antigo, modo noturno  🌚</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Sugestão']</t>
         </is>
       </c>
     </row>
@@ -3864,12 +5029,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Já está na hora do Twitter colocar a função editar 🙄</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Twitter novo é podre 🤢</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3879,12 +5049,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Só o ódio pelo twitter ter bloqueado minha outra conta 😭</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>twitter novo ficou ó👌u m a b o s t a</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3894,12 +5069,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Queria poder em vez de dar ❤️ no twitter dar 🤮</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>e esse twitter novo 🤔</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Sugestão']</t>
         </is>
       </c>
     </row>
@@ -3909,12 +5089,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>🐺pro twitter ficar perfeito só deveria dar pra fazer live kkkkk</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>{User} Só quero saber como q faz pro Twitter ficar preto 🤔</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>['Sugestão']</t>
         </is>
       </c>
     </row>
@@ -3924,12 +5109,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Mais um dos motivos que eu amo o twitter: conseguir administrar várias contas facilmente 💚</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>negxskkkkkkk fui tentar fazer o twitter ficar pretoficou lindo viu 😍😍😍😍 {URL}</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Sugestão']</t>
         </is>
       </c>
     </row>
@@ -3939,12 +5129,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Só falta agora o {User} colocar a função "editar tweet" 🤗</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Aprendir mecher no twitter  , Facebook nn tem mas graça direito , so os memes 😅</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>['Comparação', 'Sugestão']</t>
         </is>
       </c>
     </row>
@@ -3954,12 +5149,17 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>É só entrar nessa merda de Twitter aqui q eu me estresso 😡</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>sinceramente eu não poderia estar mais feliz no instagram tirando os like das fotosagora tira do twitter, facebook tbm 🙏🏻</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3969,12 +5169,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Dia do Twitter ficar fofo com um monte de balãozinho subindo ❤️</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>gratidão pelo twitter ter essa ferramenta 🙏</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -3984,12 +5189,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>eu to assim 👌 pra excluir meu instagram e meu twitter porque isso tá me fazendo muito mal e o melhor que eu fico re… {URL}</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Meu sonho é um dia acordar e o twitter ter inventado um botão 🔘 Editar 😊#TercaLigaDaJustiçaSDV #TercaDetremuraSDV</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -3999,12 +5209,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Nem vejo graça em twitter mais 😴</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Já está na hora do Twitter colocar a função editar 🙄</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica']</t>
         </is>
       </c>
     </row>
@@ -4014,12 +5229,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>nossa que preguiça desse twitter ficar mostrando coisa antiga 🤦🏼‍♀️</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Só o ódio pelo twitter ter bloqueado minha outra conta 😭</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -4029,12 +5249,17 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Depois que fiz o twitter mal mexo no Facebook. As vezes até esqueço. 🙄🤨</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Queria poder em vez de dar ❤️ no twitter dar 🤮</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -4044,12 +5269,17 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Ainda bem que eu tenho twitter, aqui eu posso expressar tudo que eu sinto 🙌🏼</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>🐺pro twitter ficar perfeito só deveria dar pra fazer live kkkkk</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -4059,12 +5289,17 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>Ôooo...Que fofoo! O Twitter tão tão Facebook lembrando que completo mais 1 ano nessa bagaceira digital.😂… {URL}</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Mais um dos motivos que eu amo o twitter: conseguir administrar várias contas facilmente 💚</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -4074,12 +5309,17 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>EU AMO O TWITTER, porque é falo sozinho e é como se eu tivesse falando com um melhor amigo 😍</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Só falta agora o {User} colocar a função "editar tweet" 🤗</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -4089,12 +5329,17 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Amo twitter aqui não tem ninguém chato querendo comentar tuas coisas 😏</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>É só entrar nessa merda de Twitter aqui q eu me estresso 😡</t>
+          <t>Neutra</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>['Elogio', 'Crítica']</t>
         </is>
       </c>
     </row>
@@ -4104,12 +5349,17 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>eu acho o coração roxo do twitter tão bonitinho que eu poderia usar ele pra tudo💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜… {URL}</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Dia do Twitter ficar fofo com um monte de balãozinho subindo ❤️</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -4119,12 +5369,17 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Pensei em trocar essa capa do twitter mais ela é tão fofinha 😍</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>eu to assim 👌 pra excluir meu instagram e meu twitter porque isso tá me fazendo muito mal e o melhor que eu fico re… {URL}</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -4134,12 +5389,17 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Pq amo Twitter? ?? Aqui digo que estou cansada das pessoas. .  Ninguém me julga!!!!😊</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Nem vejo graça em twitter mais 😴</t>
+          <t>Positiva</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>['Elogio']</t>
         </is>
       </c>
     </row>
@@ -4149,12 +5409,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Bom , eu não sei muito bem mexer no twitter mais eu sei que ..... 💩</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>nossa que preguiça desse twitter ficar mostrando coisa antiga 🤦🏼‍♀️</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>['Dúvida']</t>
         </is>
       </c>
     </row>
@@ -4164,12 +5429,17 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Negativa</t>
+          <t>Oxe, o twitter aqui deu uma bugada monstruosa 👀</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Depois que fiz o twitter mal mexo no Facebook. As vezes até esqueço. 🙄🤨</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -4179,12 +5449,17 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Positiva</t>
+          <t>Queria muito voltar a usar o Twitter como antigamente, porém não vejo mais graça nisso aqui 😑</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Ainda bem que eu tenho twitter, aqui eu posso expressar tudo que eu sinto 🙌🏼</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>['Crítica']</t>
         </is>
       </c>
     </row>
@@ -4194,162 +5469,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Neutra</t>
+          <t>ao bocetola, pessoal trata twitter como rede social da master race mas nem tem butão de editar tweet🤔</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Ôooo...Que fofoo! O Twitter tão tão Facebook lembrando que completo mais 1 ano nessa bagaceira digital.😂… {URL}</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Positiva</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>EU AMO O TWITTER, porque é falo sozinho e é como se eu tivesse falando com um melhor amigo 😍</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Neutra</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Amo twitter aqui não tem ninguém chato querendo comentar tuas coisas 😏</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Positiva</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>eu acho o coração roxo do twitter tão bonitinho que eu poderia usar ele pra tudo💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜💜… {URL}</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Positiva</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Pensei em trocar essa capa do twitter mais ela é tão fofinha 😍</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Positiva</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Pq amo Twitter? ?? Aqui digo que estou cansada das pessoas. .  Ninguém me julga!!!!😊</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Negativa</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Bom , eu não sei muito bem mexer no twitter mais eu sei que ..... 💩</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Negativa</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Oxe, o twitter aqui deu uma bugada monstruosa 👀</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Negativa</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Queria muito voltar a usar o Twitter como antigamente, porém não vejo mais graça nisso aqui 😑</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Negativa</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Cancelei o facebook pra usar menos agora uso twitter como facebook 🤷‍♀️</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Negativa</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>ao bocetola, pessoal trata twitter como rede social da master race mas nem tem butão de editar tweet🤔</t>
+          <t>Negativa</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>['Crítica', 'Dúvida']</t>
         </is>
       </c>
     </row>
